--- a/hub_dataset.xlsx
+++ b/hub_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangmin\Documents\GitHub\Dynamic_Logistics_Alpha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICARUS\Documents\28_Austin Lee\2021 RnE_Dynamic Logistics\Dynamic_Logistics_Alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D984117-261F-47D7-A9CB-493D7892146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869E4E7-E416-4F9C-BB2A-517C926910CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22665" yWindow="3165" windowWidth="17280" windowHeight="8970" xr2:uid="{2DA70CCF-393D-455A-BB5D-446EF60FCD28}"/>
   </bookViews>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="564">
   <si>
     <t>동서울 우편집중국</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2279,6 +2272,14 @@
   </si>
   <si>
     <t>D17N250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유일한 허브로 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2643,15 +2644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9C77F-EB9D-4D01-9C0B-0CFF4A23F0DC}">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2676,23 +2677,29 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2714,23 +2721,32 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2738,10 +2754,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2752,15 +2768,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2771,7 +2790,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2801,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2793,7 +2812,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2804,7 +2823,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2815,7 +2834,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2826,7 +2845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2837,7 +2856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2848,7 +2867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2859,7 +2878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2870,7 +2889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2881,7 +2900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2892,7 +2911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2903,7 +2922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2914,7 +2933,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2925,7 +2944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2936,7 +2955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2947,7 +2966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2958,7 +2977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -2969,7 +2988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2977,7 +2996,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2985,7 +3004,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2993,7 +3012,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3001,7 +3020,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3009,7 +3028,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3017,7 +3036,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3025,7 +3044,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -3033,7 +3052,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -3041,7 +3060,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3049,7 +3068,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3057,7 +3076,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -3065,7 +3084,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -3073,7 +3092,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3081,7 +3100,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -3089,7 +3108,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -3097,7 +3116,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -3105,7 +3124,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -3129,7 +3148,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -3137,7 +3156,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -3145,7 +3164,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3153,7 +3172,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -3161,7 +3180,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -3169,7 +3188,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -3177,7 +3196,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -3185,7 +3204,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -3193,7 +3212,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -3201,7 +3220,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -3209,7 +3228,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -3217,7 +3236,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -3225,7 +3244,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -3233,7 +3252,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -3241,7 +3260,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -3249,7 +3268,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -3257,7 +3276,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -3265,7 +3284,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -3281,7 +3300,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -3289,7 +3308,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -3297,7 +3316,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -3305,7 +3324,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -3313,7 +3332,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -3321,7 +3340,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -3329,7 +3348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -3337,7 +3356,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -3345,7 +3364,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -3353,7 +3372,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -3361,7 +3380,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -3369,7 +3388,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -3377,7 +3396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -3385,7 +3404,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -3393,7 +3412,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -3401,7 +3420,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -3409,7 +3428,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -3417,7 +3436,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -3425,7 +3444,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -3433,7 +3452,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -3441,7 +3460,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -3449,7 +3468,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -3457,7 +3476,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -3465,7 +3484,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -3473,7 +3492,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -3481,7 +3500,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -3489,7 +3508,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -3497,7 +3516,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -3505,7 +3524,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -3513,7 +3532,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -3521,7 +3540,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -3529,7 +3548,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -3537,7 +3556,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -3545,7 +3564,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -3553,7 +3572,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -3561,7 +3580,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -3569,7 +3588,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -3577,7 +3596,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -3585,7 +3604,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>137</v>
       </c>
@@ -3593,7 +3612,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -3601,7 +3620,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -3609,7 +3628,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>139</v>
       </c>
@@ -3617,7 +3636,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>140</v>
       </c>
@@ -3625,7 +3644,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>142</v>
       </c>
@@ -3633,7 +3652,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -3641,7 +3660,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>144</v>
       </c>
@@ -3649,7 +3668,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -3657,7 +3676,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>146</v>
       </c>
@@ -3665,7 +3684,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -3673,7 +3692,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>148</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -3689,7 +3708,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>150</v>
       </c>
@@ -3697,7 +3716,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>151</v>
       </c>
@@ -3705,7 +3724,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -3713,7 +3732,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>153</v>
       </c>
@@ -3721,7 +3740,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>154</v>
       </c>
@@ -3729,7 +3748,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -3737,7 +3756,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>156</v>
       </c>
@@ -3745,7 +3764,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>157</v>
       </c>
@@ -3753,7 +3772,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>158</v>
       </c>
@@ -3761,7 +3780,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>159</v>
       </c>
@@ -3769,7 +3788,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -3777,7 +3796,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>161</v>
       </c>
@@ -3785,7 +3804,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>162</v>
       </c>
@@ -3793,7 +3812,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -3801,7 +3820,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>164</v>
       </c>
@@ -3809,7 +3828,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -3817,7 +3836,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>427</v>
       </c>
@@ -3825,7 +3844,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>166</v>
       </c>
@@ -3833,7 +3852,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>167</v>
       </c>
@@ -3841,7 +3860,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -3849,7 +3868,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>169</v>
       </c>
@@ -3857,7 +3876,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>170</v>
       </c>
@@ -3865,7 +3884,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>171</v>
       </c>
@@ -3873,7 +3892,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>172</v>
       </c>
@@ -3881,7 +3900,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -3889,7 +3908,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -3897,7 +3916,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>175</v>
       </c>
@@ -3905,7 +3924,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>176</v>
       </c>
@@ -3913,7 +3932,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>177</v>
       </c>
@@ -3921,7 +3940,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>178</v>
       </c>
@@ -3929,7 +3948,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>179</v>
       </c>
@@ -3937,7 +3956,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>180</v>
       </c>
@@ -3945,7 +3964,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>181</v>
       </c>
@@ -3953,7 +3972,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>182</v>
       </c>
@@ -3961,7 +3980,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>183</v>
       </c>
@@ -3969,7 +3988,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -3977,7 +3996,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>185</v>
       </c>
@@ -3985,7 +4004,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>186</v>
       </c>
@@ -3993,7 +4012,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>187</v>
       </c>
@@ -4001,7 +4020,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>188</v>
       </c>
@@ -4009,7 +4028,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -4017,7 +4036,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>190</v>
       </c>
@@ -4025,7 +4044,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -4033,7 +4052,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>192</v>
       </c>
@@ -4041,7 +4060,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>193</v>
       </c>
@@ -4049,7 +4068,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>194</v>
       </c>
@@ -4057,7 +4076,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>195</v>
       </c>
@@ -4065,7 +4084,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>196</v>
       </c>
@@ -4073,7 +4092,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>197</v>
       </c>
@@ -4081,7 +4100,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>198</v>
       </c>
@@ -4089,7 +4108,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>199</v>
       </c>
@@ -4097,7 +4116,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>200</v>
       </c>
@@ -4105,7 +4124,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>201</v>
       </c>
@@ -4113,7 +4132,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>202</v>
       </c>
@@ -4121,7 +4140,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>203</v>
       </c>
@@ -4129,7 +4148,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>204</v>
       </c>
@@ -4137,7 +4156,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>205</v>
       </c>
@@ -4145,7 +4164,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>206</v>
       </c>
@@ -4153,7 +4172,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>207</v>
       </c>
@@ -4161,7 +4180,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>208</v>
       </c>
@@ -4169,7 +4188,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -4177,7 +4196,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -4185,7 +4204,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>211</v>
       </c>
@@ -4193,7 +4212,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>212</v>
       </c>
@@ -4201,7 +4220,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>213</v>
       </c>
@@ -4209,7 +4228,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>214</v>
       </c>
@@ -4217,7 +4236,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>215</v>
       </c>
@@ -4225,7 +4244,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>216</v>
       </c>
@@ -4233,7 +4252,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>217</v>
       </c>
@@ -4241,7 +4260,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>218</v>
       </c>
@@ -4249,7 +4268,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -4257,7 +4276,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>220</v>
       </c>
@@ -4265,7 +4284,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>221</v>
       </c>
@@ -4273,7 +4292,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>222</v>
       </c>
@@ -4281,7 +4300,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>223</v>
       </c>
@@ -4289,7 +4308,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>224</v>
       </c>
@@ -4297,7 +4316,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>225</v>
       </c>
@@ -4305,7 +4324,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>226</v>
       </c>
@@ -4313,7 +4332,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>227</v>
       </c>
@@ -4321,7 +4340,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>228</v>
       </c>
@@ -4329,7 +4348,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>229</v>
       </c>
@@ -4337,7 +4356,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>230</v>
       </c>
@@ -4345,7 +4364,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>231</v>
       </c>
@@ -4353,7 +4372,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>232</v>
       </c>
@@ -4361,7 +4380,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>233</v>
       </c>
@@ -4369,7 +4388,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>234</v>
       </c>
@@ -4377,7 +4396,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>235</v>
       </c>
@@ -4385,7 +4404,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>236</v>
       </c>
@@ -4393,7 +4412,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>237</v>
       </c>
@@ -4401,7 +4420,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>238</v>
       </c>
@@ -4409,7 +4428,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>239</v>
       </c>
@@ -4417,7 +4436,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>240</v>
       </c>
@@ -4425,7 +4444,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>241</v>
       </c>
@@ -4433,7 +4452,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>242</v>
       </c>
@@ -4441,7 +4460,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>243</v>
       </c>
@@ -4449,7 +4468,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>244</v>
       </c>
@@ -4457,7 +4476,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>245</v>
       </c>
@@ -4465,7 +4484,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>246</v>
       </c>
@@ -4473,7 +4492,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>247</v>
       </c>
@@ -4481,7 +4500,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>248</v>
       </c>
@@ -4489,7 +4508,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>249</v>
       </c>
@@ -4497,7 +4516,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>250</v>
       </c>
@@ -4505,7 +4524,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>251</v>
       </c>
@@ -4513,7 +4532,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>252</v>
       </c>
@@ -4521,7 +4540,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>253</v>
       </c>
@@ -4529,7 +4548,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>254</v>
       </c>
@@ -4537,7 +4556,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>255</v>
       </c>
@@ -4545,7 +4564,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>256</v>
       </c>
@@ -4553,7 +4572,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>257</v>
       </c>
@@ -4561,7 +4580,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>258</v>
       </c>
@@ -4569,7 +4588,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>259</v>
       </c>
@@ -4577,7 +4596,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>260</v>
       </c>
@@ -4585,7 +4604,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>261</v>
       </c>
@@ -4593,7 +4612,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>262</v>
       </c>
@@ -4601,7 +4620,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>263</v>
       </c>
@@ -4609,7 +4628,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>264</v>
       </c>
@@ -4617,7 +4636,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>265</v>
       </c>
@@ -4625,7 +4644,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4633,7 +4652,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>267</v>
       </c>
@@ -4641,7 +4660,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>268</v>
       </c>
@@ -4649,7 +4668,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>269</v>
       </c>
@@ -4657,7 +4676,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>270</v>
       </c>
@@ -4665,7 +4684,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>271</v>
       </c>
@@ -4673,7 +4692,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>272</v>
       </c>
@@ -4681,7 +4700,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>273</v>
       </c>
@@ -4689,7 +4708,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>274</v>
       </c>
@@ -4697,7 +4716,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>275</v>
       </c>
@@ -4705,7 +4724,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>276</v>
       </c>
@@ -4713,7 +4732,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>277</v>
       </c>
@@ -4721,7 +4740,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>278</v>
       </c>
@@ -4729,7 +4748,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>279</v>
       </c>
@@ -4737,7 +4756,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>280</v>
       </c>
@@ -4745,7 +4764,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>281</v>
       </c>
@@ -4753,7 +4772,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>282</v>
       </c>
@@ -4761,7 +4780,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>283</v>
       </c>
@@ -4769,7 +4788,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>284</v>
       </c>
@@ -4777,7 +4796,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>285</v>
       </c>
@@ -4785,7 +4804,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>286</v>
       </c>
@@ -4793,7 +4812,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>287</v>
       </c>
@@ -4801,7 +4820,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>288</v>
       </c>
@@ -4809,7 +4828,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>289</v>
       </c>
@@ -4817,7 +4836,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>290</v>
       </c>
@@ -4825,7 +4844,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>291</v>
       </c>
@@ -4833,7 +4852,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>292</v>
       </c>
@@ -4841,7 +4860,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>295</v>
       </c>
@@ -4849,7 +4868,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>296</v>
       </c>
@@ -4857,7 +4876,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>297</v>
       </c>
@@ -4865,7 +4884,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>298</v>
       </c>
@@ -4873,7 +4892,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>299</v>
       </c>
@@ -4881,7 +4900,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>300</v>
       </c>
@@ -4889,7 +4908,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>301</v>
       </c>
@@ -4897,7 +4916,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>302</v>
       </c>
@@ -4905,7 +4924,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>303</v>
       </c>
@@ -4913,7 +4932,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>304</v>
       </c>
@@ -4921,7 +4940,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>305</v>
       </c>
@@ -4929,7 +4948,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>306</v>
       </c>
@@ -4937,7 +4956,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>307</v>
       </c>
@@ -4945,7 +4964,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>308</v>
       </c>
@@ -4953,7 +4972,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>309</v>
       </c>
@@ -4961,7 +4980,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>310</v>
       </c>

--- a/hub_dataset.xlsx
+++ b/hub_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICARUS\Documents\28_Austin Lee\2021 RnE_Dynamic Logistics\Dynamic_Logistics_Alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869E4E7-E416-4F9C-BB2A-517C926910CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD6468B-5487-4A8A-A09D-4CB977E74C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22665" yWindow="3165" windowWidth="17280" windowHeight="8970" xr2:uid="{2DA70CCF-393D-455A-BB5D-446EF60FCD28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="550">
   <si>
     <t>동서울 우편집중국</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동서울 우편물류센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서서울 우편물류센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>의정부 우편집중국</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부평 우편물류센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중부권 광역우편물류센터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M01H002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M01H001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S08H002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M08H003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M06H004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안양 우편물류센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S02H004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M08H005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성남 우편집중국</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1199,14 +1167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제주 우편집중국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S16H024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경남 밀양시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1259,14 +1219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제주 제주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주 서귀포시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세종특별자치시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2263,23 +2215,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D16N248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D16N249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D17N250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유일한 허브로 기능</t>
+    <t>유일한 중심 허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2644,15 +2588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9C77F-EB9D-4D01-9C0B-0CFF4A23F0DC}">
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2663,123 +2607,153 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>900</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>192</v>
+      </c>
+      <c r="E5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
       <c r="C6">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>21</v>
-      </c>
-      <c r="C10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11">
+        <v>125</v>
+      </c>
       <c r="D11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2787,10 +2761,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2798,10 +2775,13 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2809,10 +2789,13 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2820,10 +2803,13 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2831,10 +2817,13 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2842,10 +2831,13 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2853,10 +2845,13 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2866,8 +2861,11 @@
       <c r="C19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2877,41 +2875,53 @@
       <c r="C20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2921,8 +2931,11 @@
       <c r="C24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2930,2062 +2943,2231 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="C26">
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B30" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>122</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>123</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>124</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>125</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>128</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>129</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>131</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>135</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>138</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>139</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>140</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>143</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>144</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>145</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>146</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>147</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>148</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>149</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>150</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>151</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>152</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>153</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>154</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>415</v>
+      </c>
+      <c r="B132" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>155</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>156</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>158</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>159</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>160</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>161</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>162</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>163</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" t="s">
+        <v>416</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>164</v>
-      </c>
-      <c r="B135" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>165</v>
-      </c>
-      <c r="B136" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>177</v>
+      </c>
+      <c r="B152" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" t="s">
         <v>427</v>
       </c>
-      <c r="B137" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>166</v>
-      </c>
-      <c r="B138" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>168</v>
-      </c>
-      <c r="B140" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>169</v>
-      </c>
-      <c r="B141" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>170</v>
-      </c>
-      <c r="B142" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>171</v>
-      </c>
-      <c r="B143" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>172</v>
-      </c>
-      <c r="B144" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>173</v>
-      </c>
-      <c r="B145" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>174</v>
-      </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>175</v>
-      </c>
-      <c r="B147" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>176</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>177</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>178</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>179</v>
-      </c>
-      <c r="B151" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>180</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>181</v>
-      </c>
-      <c r="B153" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" t="s">
         <v>434</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>182</v>
-      </c>
-      <c r="B154" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>183</v>
-      </c>
-      <c r="B155" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>184</v>
-      </c>
-      <c r="B156" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>185</v>
-      </c>
-      <c r="B157" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>186</v>
-      </c>
-      <c r="B158" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>187</v>
-      </c>
-      <c r="B159" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>188</v>
-      </c>
-      <c r="B160" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B161" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B162" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B163" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B164" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B166" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B167" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B168" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B169" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B170" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B171" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B172" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B173" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B174" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B175" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B176" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B177" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B179" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B180" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B181" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B182" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B183" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B185" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B186" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B187" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B189" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B190" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B191" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B192" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B193" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B194" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B195" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B196" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B198" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B199" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B200" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B201" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B202" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B203" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B204" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B205" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B207" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B208" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B209" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B211" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B212" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B213" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B215" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B216" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B218" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B219" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B221" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B222" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B223" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>249</v>
+      </c>
+      <c r="B224" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>250</v>
+      </c>
+      <c r="B225" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>251</v>
+      </c>
+      <c r="B226" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>252</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B227" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>253</v>
+      </c>
+      <c r="B228" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>254</v>
+      </c>
+      <c r="B229" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>255</v>
+      </c>
+      <c r="B230" t="s">
+        <v>504</v>
+      </c>
+      <c r="D230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>256</v>
+      </c>
+      <c r="B231" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>253</v>
-      </c>
-      <c r="B225" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>257</v>
+      </c>
+      <c r="B232" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>254</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="D232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>258</v>
+      </c>
+      <c r="B233" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>255</v>
-      </c>
-      <c r="B227" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>259</v>
+      </c>
+      <c r="B234" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>256</v>
-      </c>
-      <c r="B228" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>260</v>
+      </c>
+      <c r="B235" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>257</v>
-      </c>
-      <c r="B229" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>261</v>
+      </c>
+      <c r="B236" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>258</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>262</v>
+      </c>
+      <c r="B237" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>259</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="D237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>263</v>
+      </c>
+      <c r="B238" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>260</v>
-      </c>
-      <c r="B232" t="s">
+      <c r="D238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>264</v>
+      </c>
+      <c r="B239" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>261</v>
-      </c>
-      <c r="B233" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>265</v>
+      </c>
+      <c r="B240" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>262</v>
-      </c>
-      <c r="B234" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>266</v>
+      </c>
+      <c r="B241" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>263</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>267</v>
+      </c>
+      <c r="B242" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>264</v>
-      </c>
-      <c r="B236" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>265</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>269</v>
+      </c>
+      <c r="B244" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>266</v>
-      </c>
-      <c r="B238" t="s">
+      <c r="D244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>267</v>
-      </c>
-      <c r="B239" t="s">
+      <c r="D245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>271</v>
+      </c>
+      <c r="B246" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>268</v>
-      </c>
-      <c r="B240" t="s">
+      <c r="D246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>272</v>
+      </c>
+      <c r="B247" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>269</v>
-      </c>
-      <c r="B241" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>273</v>
+      </c>
+      <c r="B248" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>270</v>
-      </c>
-      <c r="B242" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>274</v>
+      </c>
+      <c r="B249" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>271</v>
-      </c>
-      <c r="B243" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>275</v>
+      </c>
+      <c r="B250" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>272</v>
-      </c>
-      <c r="B244" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>276</v>
+      </c>
+      <c r="B251" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>273</v>
-      </c>
-      <c r="B245" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>277</v>
+      </c>
+      <c r="B252" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>274</v>
-      </c>
-      <c r="B246" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>278</v>
+      </c>
+      <c r="B253" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>275</v>
-      </c>
-      <c r="B247" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>279</v>
+      </c>
+      <c r="B254" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>276</v>
-      </c>
-      <c r="B248" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>280</v>
+      </c>
+      <c r="B255" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>277</v>
-      </c>
-      <c r="B249" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>281</v>
+      </c>
+      <c r="B256" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>278</v>
-      </c>
-      <c r="B250" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>282</v>
+      </c>
+      <c r="B257" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>279</v>
-      </c>
-      <c r="B251" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>283</v>
+      </c>
+      <c r="B258" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>280</v>
-      </c>
-      <c r="B252" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>284</v>
+      </c>
+      <c r="B259" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>281</v>
-      </c>
-      <c r="B253" t="s">
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>285</v>
+      </c>
+      <c r="B260" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>282</v>
-      </c>
-      <c r="B254" t="s">
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>286</v>
+      </c>
+      <c r="B261" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>283</v>
-      </c>
-      <c r="B255" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>287</v>
+      </c>
+      <c r="B262" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>284</v>
-      </c>
-      <c r="B256" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>288</v>
+      </c>
+      <c r="B263" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>285</v>
-      </c>
-      <c r="B257" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>289</v>
+      </c>
+      <c r="B264" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>286</v>
-      </c>
-      <c r="B258" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>290</v>
+      </c>
+      <c r="B265" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>287</v>
-      </c>
-      <c r="B259" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>291</v>
+      </c>
+      <c r="B266" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>288</v>
-      </c>
-      <c r="B260" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>292</v>
+      </c>
+      <c r="B267" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>289</v>
-      </c>
-      <c r="B261" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>293</v>
+      </c>
+      <c r="B268" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>290</v>
-      </c>
-      <c r="B262" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>294</v>
+      </c>
+      <c r="B269" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>291</v>
-      </c>
-      <c r="B263" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>295</v>
+      </c>
+      <c r="B270" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>292</v>
-      </c>
-      <c r="B264" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>296</v>
+      </c>
+      <c r="B271" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>295</v>
-      </c>
-      <c r="B265" t="s">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>297</v>
+      </c>
+      <c r="B272" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>296</v>
-      </c>
-      <c r="B266" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>297</v>
-      </c>
-      <c r="B267" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>298</v>
-      </c>
-      <c r="B268" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>299</v>
-      </c>
-      <c r="B269" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>300</v>
-      </c>
-      <c r="B270" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>301</v>
-      </c>
-      <c r="B271" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>302</v>
-      </c>
-      <c r="B272" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B273" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>304</v>
-      </c>
-      <c r="B274" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>305</v>
-      </c>
-      <c r="B275" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>306</v>
-      </c>
-      <c r="B276" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>307</v>
-      </c>
-      <c r="B277" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>308</v>
-      </c>
-      <c r="B278" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>309</v>
-      </c>
-      <c r="B279" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>310</v>
-      </c>
-      <c r="B280" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/hub_dataset.xlsx
+++ b/hub_dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICARUS\Documents\28_Austin Lee\2021 RnE_Dynamic Logistics\Dynamic_Logistics_Alpha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Dynamic_Logistics_Alpha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD6468B-5487-4A8A-A09D-4CB977E74C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22665" yWindow="3165" windowWidth="17280" windowHeight="8970" xr2:uid="{2DA70CCF-393D-455A-BB5D-446EF60FCD28}"/>
+    <workbookView xWindow="-22665" yWindow="3165" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2230,7 +2229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2587,11 +2586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9C77F-EB9D-4D01-9C0B-0CFF4A23F0DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
